--- a/medicine/Enfance/Iqbal_Masih/Iqbal_Masih.xlsx
+++ b/medicine/Enfance/Iqbal_Masih/Iqbal_Masih.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iqbal Masih (en ourdou : اقبال مسیح, né le 4 avril 1983 à Muridke et mort le 16 avril 1995 est un jeune Pakistanais vendu comme enfant esclave à l'âge de quatre ans[1].  Il devint une figure mondialement connue de la lutte contre l’esclavage moderne à dix ans et fut assassiné en raison de son combat en 1995.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iqbal Masih (en ourdou : اقبال مسیح, né le 4 avril 1983 à Muridke et mort le 16 avril 1995 est un jeune Pakistanais vendu comme enfant esclave à l'âge de quatre ans.  Il devint une figure mondialement connue de la lutte contre l’esclavage moderne à dix ans et fut assassiné en raison de son combat en 1995.
 En 1998, la Radiotelevisione Italiana, Arte et Red Film Group ont produit un film reprenant l'histoire d'Iqbal Masih sous le titre Iqbal - Non à l'esclavage des enfants.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Iqbal Masih est né le 4 avril 1983 à Muridke, un petit village proche de Lahore, au Pakistan. Sa famille, très pauvre, doit emprunter de l'argent (chez un usurier, à un taux d'intérêt élevé) pour payer les médicaments de sa mère et assurer la vie de sa famille. La dette ne cesse d'augmenter et Iqbal, à l'âge de quatre ans, est donc vendu par ses parents pour l'équivalent de 12 dollars américains afin d'aider à la rembourser : en effet, la servitude pour dettes est un système de remboursement répandu au Pakistan. Des parents endettés cèdent souvent leurs enfants moyennant un peu d’argent et c'est ainsi le travail de l'enfant qui rembourse la dette. Mais l'employeur retient sur le salaire de l'enfant des frais de nourriture, de logement et les amendes infligées en cas de faute. La dette ne peut donc en fait jamais être remboursée : l'enfant reste l'esclave de son employeur.
 Iqbal travaille d'abord dans une fabrique de briques, puis dans un atelier de tisserand pour douze heures par jour. Il est enchaîné du matin au soir. En raison de ses très nombreuses heures de travail et de la malnutrition, à l'âge de 12 ans, Iqbal faisait la taille d'un enfant de six ans. Malgré cela, Iqbal a réussi à apprendre à écrire et à lire  grâce à une autre enfant esclave du nom de Maria.
@@ -549,7 +563,9 @@
           <t>Reconnaissance à titre posthume et inspiration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2000, Iqbal a reçu à titre posthume le World's Children's Prize for the Rights of the Child (en).
 Un collectif Iqbal-Masih à été fondé, qui œuvre à travers son acte fondateur, l’Appel d’Épinal, à faire connaître et appliquer la Convention internationale des droits de l'enfant.
@@ -558,7 +574,7 @@
 Tahar Ben Jelloun lui rend hommage dans sa fable pour la jeunesse L'École perdue (Folio Junior), dans laquelle un jeune instituteur africain s'appuie sur l'héroïsme du jeune garçon pour éveiller la conscience de ses élèves et les soustraire à l'usine.
 Dans sa chanson Esclave 2000 le groupe de rap français Assassin rend entre autres hommage à la mémoire de Iqbal Masih en prenant parti de manière explicite contre toute forme d'esclavage, illustrée de plusieurs exemples dont celui d'Iqbal Masih. Pierre Bachelet dans son dernier album Une autre lumière, sorti en 2001, rend également hommage à Iqbal Masih, dans une chanson intitulée Iqbal (paroles Alain Damecour, musique Pierre Bachelet).
 En 2010, l'un des « villages » du rassemblement CitéCap, organisé par les Scouts et Guides de France, porte le nom d'Iqbal Masih.
-On peut enfin noter que la ville de Saint-Denis a vu l'ouverture en 1998 d'un collège au nom d'Iqbal Masih dans le quartier de la Plaine[2].
+On peut enfin noter que la ville de Saint-Denis a vu l'ouverture en 1998 d'un collège au nom d'Iqbal Masih dans le quartier de la Plaine.
 </t>
         </is>
       </c>
